--- a/Информатика/Viacheslav/Лабораторные/lab5/lab.xlsx
+++ b/Информатика/Viacheslav/Лабораторные/lab5/lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slape\Desktop\myitmo\Информатика\Viacheslav\Лабораторные\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080981D-8A68-46C7-814E-3698EF686C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BBA3A7-BE5C-4AAD-9D29-08A8CF029265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,12 +422,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,12 +442,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{07621C6C-B504-488B-A3DD-8EC1A85924AE}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -466,138 +466,6 @@
         <b val="0"/>
         <i/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -877,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:Z15"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,15 +847,15 @@
       <c r="Z3" s="5">
         <v>0</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AG3" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1080,15 +948,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AG4" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1181,15 +1049,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AF5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AG5" s="19" t="s">
+      <c r="AG5" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1282,15 +1150,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AF6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AG6" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1385,7 +1253,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1478,11 +1346,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="19"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="17"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1577,7 +1445,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1672,7 +1540,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1767,7 +1635,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1862,7 +1730,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1957,7 +1825,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2052,7 +1920,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2169,10 +2037,10 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="19"/>
       <c r="G17" s="4"/>
       <c r="H17" s="6">
         <f t="shared" ref="H17:X17" si="3">IF(I18=".",I17,ROUNDDOWN((I17+I18+I19)/2,0))</f>
@@ -2249,14 +2117,14 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="4" t="str">
@@ -2339,7 +2207,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AC18" s="8" t="s">
+      <c r="AC18" s="18" t="s">
         <v>27</v>
       </c>
       <c r="AD18" t="str">
@@ -2352,8 +2220,8 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="15"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="4" t="str">
         <f>C18</f>
         <v>B2</v>
@@ -2434,12 +2302,12 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AC19" s="8"/>
+      <c r="AC19" s="18"/>
       <c r="AD19" t="str">
         <f>"X"&amp;MID(C18,2,2)</f>
         <v>X2</v>
       </c>
-      <c r="AE19" s="11">
+      <c r="AE19" s="9">
         <f>VLOOKUP(AD19,$A$4:$C$15,3,0)</f>
         <v>15553</v>
       </c>
@@ -2522,21 +2390,21 @@
         <f>IF(Z19=".",Z19,MOD(Z19+Z18+Z17, 2))</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="14" t="s">
+      <c r="AA20" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AB20" s="4">
         <f>IF(H20=1,_xlfn.DECIMAL(H20&amp;I20&amp;J20&amp;K20&amp;M20&amp;N20&amp;O20&amp;P20&amp;R20&amp;S20&amp;T20&amp;U20&amp;W20&amp;X20&amp;Y20&amp;Z20,2)-65536,_xlfn.DECIMAL(H20&amp;I20&amp;J20&amp;K20&amp;M20&amp;N20&amp;O20&amp;P20&amp;R20&amp;S20&amp;T20&amp;U20&amp;W20&amp;X20&amp;Y20&amp;Z20,2))</f>
         <v>21364</v>
       </c>
-      <c r="AC20" s="13" t="s">
+      <c r="AC20" s="11" t="s">
         <v>41</v>
       </c>
       <c r="AE20">
         <f>AE18+AE19</f>
         <v>21364</v>
       </c>
-      <c r="AF20" s="13" t="s">
+      <c r="AF20" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2623,69 +2491,69 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="G22" s="15"/>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="15">
+      <c r="I22" s="18"/>
+      <c r="J22" s="13">
         <f>IF(H17+H18+H19&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="17">
+      <c r="M22" s="18"/>
+      <c r="N22" s="15">
         <f>1-MOD(SUM(R20:U20)+SUM(W20:Z20),2)</f>
         <v>1</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="15">
+      <c r="P22" s="18"/>
+      <c r="Q22" s="13">
         <f>V17</f>
         <v>0</v>
       </c>
-      <c r="R22" s="17"/>
-      <c r="S22" s="8" t="s">
+      <c r="R22" s="15"/>
+      <c r="S22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="T22" s="8"/>
-      <c r="U22" s="15">
+      <c r="T22" s="18"/>
+      <c r="U22" s="13">
         <f>IF(AB20=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="15"/>
-      <c r="W22" s="9" t="s">
+      <c r="V22" s="13"/>
+      <c r="W22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="17">
+      <c r="X22" s="19"/>
+      <c r="Y22" s="15">
         <f>H20</f>
         <v>0</v>
       </c>
       <c r="AA22" t="s">
         <v>48</v>
       </c>
-      <c r="AB22" s="16">
+      <c r="AB22" s="14">
         <f>MOD(J22+H17,2)</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
       <c r="AF22" t="str">
         <f>VLOOKUP(IF(AB22=0,AB22&amp;J22,AB22&amp;"-"&amp;H18),AF$3:AG$6,2,0)</f>
         <v>Результат корректный</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="G23" s="15"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
+      <c r="G23" s="13"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G25" s="4"/>
@@ -2770,7 +2638,7 @@
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="4" t="str">
@@ -2853,7 +2721,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="8" t="s">
+      <c r="AC26" s="18" t="s">
         <v>27</v>
       </c>
       <c r="AD26" t="str">
@@ -2866,7 +2734,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="F27" s="8"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="4" t="str">
         <f>C26</f>
         <v>B2</v>
@@ -2947,12 +2815,12 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AC27" s="8"/>
+      <c r="AC27" s="18"/>
       <c r="AD27" t="str">
         <f>"X"&amp;MID(C26,2,2)</f>
         <v>X2</v>
       </c>
-      <c r="AE27" s="11">
+      <c r="AE27" s="9">
         <f>VLOOKUP(AD27,$A$4:$C$15,3,0)</f>
         <v>15553</v>
       </c>
@@ -3035,21 +2903,21 @@
         <f>IF(Z27=".",Z27,MOD(Z27+Z26+Z25, 2))</f>
         <v>1</v>
       </c>
-      <c r="AA28" s="14" t="s">
+      <c r="AA28" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AB28" s="4">
         <f>IF(H28=1,_xlfn.DECIMAL(H28&amp;I28&amp;J28&amp;K28&amp;M28&amp;N28&amp;O28&amp;P28&amp;R28&amp;S28&amp;T28&amp;U28&amp;W28&amp;X28&amp;Y28&amp;Z28,2)-65536,_xlfn.DECIMAL(H28&amp;I28&amp;J28&amp;K28&amp;M28&amp;N28&amp;O28&amp;P28&amp;R28&amp;S28&amp;T28&amp;U28&amp;W28&amp;X28&amp;Y28&amp;Z28,2))</f>
         <v>-28619</v>
       </c>
-      <c r="AC28" s="13" t="s">
+      <c r="AC28" s="11" t="s">
         <v>41</v>
       </c>
       <c r="AE28">
         <f>AE26+AE27</f>
         <v>36917</v>
       </c>
-      <c r="AF28" s="13" t="s">
+      <c r="AF28" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3075,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" ref="L29:V29" si="26">IF($H28=1,IF(_xlfn.DECIMAL($J28&amp;$K28&amp;$M28&amp;$N28&amp;$O28&amp;$P28&amp;$R28&amp;$S28&amp;$T28&amp;$U28&amp;$W28&amp;$X28&amp;$Y28&amp;$Z28,2)&gt;0,IF(L28=".",".",1-L28),IF(L28=".",".",L28)),"")</f>
+        <f t="shared" ref="L29" si="26">IF($H28=1,IF(_xlfn.DECIMAL($J28&amp;$K28&amp;$M28&amp;$N28&amp;$O28&amp;$P28&amp;$R28&amp;$S28&amp;$T28&amp;$U28&amp;$W28&amp;$X28&amp;$Y28&amp;$Z28,2)&gt;0,IF(L28=".",".",1-L28),IF(L28=".",".",L28)),"")</f>
         <v>.</v>
       </c>
       <c r="M29" s="4">
@@ -3095,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="4" t="str">
-        <f t="shared" ref="Q29:AA29" si="27">IF($H28=1,IF(_xlfn.DECIMAL($J28&amp;$K28&amp;$M28&amp;$N28&amp;$O28&amp;$P28&amp;$R28&amp;$S28&amp;$T28&amp;$U28&amp;$W28&amp;$X28&amp;$Y28&amp;$Z28,2)&gt;0,IF(Q28=".",".",1-Q28),IF(Q28=".",".",Q28)),"")</f>
+        <f t="shared" ref="Q29" si="27">IF($H28=1,IF(_xlfn.DECIMAL($J28&amp;$K28&amp;$M28&amp;$N28&amp;$O28&amp;$P28&amp;$R28&amp;$S28&amp;$T28&amp;$U28&amp;$W28&amp;$X28&amp;$Y28&amp;$Z28,2)&gt;0,IF(Q28=".",".",1-Q28),IF(Q28=".",".",Q28)),"")</f>
         <v>.</v>
       </c>
       <c r="R29" s="4">
@@ -3115,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="4" t="str">
-        <f t="shared" ref="V29:AE29" si="28">IF($H28=1,IF(_xlfn.DECIMAL($J28&amp;$K28&amp;$M28&amp;$N28&amp;$O28&amp;$P28&amp;$R28&amp;$S28&amp;$T28&amp;$U28&amp;$W28&amp;$X28&amp;$Y28&amp;$Z28,2)&gt;0,IF(V28=".",".",1-V28),IF(V28=".",".",V28)),"")</f>
+        <f t="shared" ref="V29" si="28">IF($H28=1,IF(_xlfn.DECIMAL($J28&amp;$K28&amp;$M28&amp;$N28&amp;$O28&amp;$P28&amp;$R28&amp;$S28&amp;$T28&amp;$U28&amp;$W28&amp;$X28&amp;$Y28&amp;$Z28,2)&gt;0,IF(V28=".",".",1-V28),IF(V28=".",".",V28)),"")</f>
         <v>.</v>
       </c>
       <c r="W29" s="4">
@@ -3136,59 +3004,59 @@
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="G30" s="15"/>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="13"/>
+      <c r="H30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="15">
+      <c r="I30" s="18"/>
+      <c r="J30" s="13">
         <f>IF(H25+H26+H27&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="17">
+      <c r="M30" s="18"/>
+      <c r="N30" s="15">
         <f>1-MOD(SUM(R28:U28)+SUM(W28:Z28),2)</f>
         <v>1</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="O30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="15">
+      <c r="P30" s="18"/>
+      <c r="Q30" s="13">
         <f>V25</f>
         <v>0</v>
       </c>
-      <c r="R30" s="17"/>
-      <c r="S30" s="8" t="s">
+      <c r="R30" s="15"/>
+      <c r="S30" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="T30" s="8"/>
-      <c r="U30" s="15">
+      <c r="T30" s="18"/>
+      <c r="U30" s="13">
         <f>IF(AB28=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V30" s="15"/>
-      <c r="W30" s="9" t="s">
+      <c r="V30" s="13"/>
+      <c r="W30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="17">
+      <c r="X30" s="19"/>
+      <c r="Y30" s="15">
         <f>H28</f>
         <v>1</v>
       </c>
       <c r="AA30" t="s">
         <v>48</v>
       </c>
-      <c r="AB30" s="16">
+      <c r="AB30" s="14">
         <f>MOD(J30+H25,2)</f>
         <v>1</v>
       </c>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
       <c r="AF30" t="str">
         <f>VLOOKUP(IF(AB30=0,AB30&amp;J30,AB30&amp;"-"&amp;H26),AF$3:AG$6,2,0)</f>
         <v>При сложении положительных чисел получен отрицательный результат ПЕРЕПОЛНЕНИЕ!</v>
@@ -3277,7 +3145,7 @@
       <c r="C34" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="4" t="str">
@@ -3360,7 +3228,7 @@
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="AC34" s="8" t="s">
+      <c r="AC34" s="18" t="s">
         <v>27</v>
       </c>
       <c r="AD34" t="str">
@@ -3373,7 +3241,7 @@
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="F35" s="8"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="4" t="str">
         <f>C34</f>
         <v>B2</v>
@@ -3454,12 +3322,12 @@
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="AC35" s="8"/>
+      <c r="AC35" s="18"/>
       <c r="AD35" t="str">
         <f>"X"&amp;MID(C34,2,2)</f>
         <v>X2</v>
       </c>
-      <c r="AE35" s="11">
+      <c r="AE35" s="9">
         <f>VLOOKUP(AD35,$A$4:$C$15,3,0)</f>
         <v>15553</v>
       </c>
@@ -3542,21 +3410,21 @@
         <f>IF(Z35=".",Z35,MOD(Z35+Z34+Z33, 2))</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="14" t="s">
+      <c r="AA36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AB36" s="4">
         <f>IF(H36=1,_xlfn.DECIMAL(H36&amp;I36&amp;J36&amp;K36&amp;M36&amp;N36&amp;O36&amp;P36&amp;R36&amp;S36&amp;T36&amp;U36&amp;W36&amp;X36&amp;Y36&amp;Z36,2)-65536,_xlfn.DECIMAL(H36&amp;I36&amp;J36&amp;K36&amp;M36&amp;N36&amp;O36&amp;P36&amp;R36&amp;S36&amp;T36&amp;U36&amp;W36&amp;X36&amp;Y36&amp;Z36,2))</f>
         <v>9742</v>
       </c>
-      <c r="AC36" s="13" t="s">
+      <c r="AC36" s="11" t="s">
         <v>41</v>
       </c>
       <c r="AE36">
         <f>AE34+AE35</f>
         <v>9742</v>
       </c>
-      <c r="AF36" s="13" t="s">
+      <c r="AF36" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3582,7 +3450,7 @@
         <v/>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" ref="L37:V37" si="48">IF($H36=1,IF(_xlfn.DECIMAL($J36&amp;$K36&amp;$M36&amp;$N36&amp;$O36&amp;$P36&amp;$R36&amp;$S36&amp;$T36&amp;$U36&amp;$W36&amp;$X36&amp;$Y36&amp;$Z36,2)&gt;0,IF(L36=".",".",1-L36),IF(L36=".",".",L36)),"")</f>
+        <f t="shared" ref="L37" si="48">IF($H36=1,IF(_xlfn.DECIMAL($J36&amp;$K36&amp;$M36&amp;$N36&amp;$O36&amp;$P36&amp;$R36&amp;$S36&amp;$T36&amp;$U36&amp;$W36&amp;$X36&amp;$Y36&amp;$Z36,2)&gt;0,IF(L36=".",".",1-L36),IF(L36=".",".",L36)),"")</f>
         <v/>
       </c>
       <c r="M37" s="4" t="str">
@@ -3602,7 +3470,7 @@
         <v/>
       </c>
       <c r="Q37" s="4" t="str">
-        <f t="shared" ref="Q37:AA37" si="49">IF($H36=1,IF(_xlfn.DECIMAL($J36&amp;$K36&amp;$M36&amp;$N36&amp;$O36&amp;$P36&amp;$R36&amp;$S36&amp;$T36&amp;$U36&amp;$W36&amp;$X36&amp;$Y36&amp;$Z36,2)&gt;0,IF(Q36=".",".",1-Q36),IF(Q36=".",".",Q36)),"")</f>
+        <f t="shared" ref="Q37" si="49">IF($H36=1,IF(_xlfn.DECIMAL($J36&amp;$K36&amp;$M36&amp;$N36&amp;$O36&amp;$P36&amp;$R36&amp;$S36&amp;$T36&amp;$U36&amp;$W36&amp;$X36&amp;$Y36&amp;$Z36,2)&gt;0,IF(Q36=".",".",1-Q36),IF(Q36=".",".",Q36)),"")</f>
         <v/>
       </c>
       <c r="R37" s="4" t="str">
@@ -3622,7 +3490,7 @@
         <v/>
       </c>
       <c r="V37" s="4" t="str">
-        <f t="shared" ref="V37:AE37" si="50">IF($H36=1,IF(_xlfn.DECIMAL($J36&amp;$K36&amp;$M36&amp;$N36&amp;$O36&amp;$P36&amp;$R36&amp;$S36&amp;$T36&amp;$U36&amp;$W36&amp;$X36&amp;$Y36&amp;$Z36,2)&gt;0,IF(V36=".",".",1-V36),IF(V36=".",".",V36)),"")</f>
+        <f t="shared" ref="V37" si="50">IF($H36=1,IF(_xlfn.DECIMAL($J36&amp;$K36&amp;$M36&amp;$N36&amp;$O36&amp;$P36&amp;$R36&amp;$S36&amp;$T36&amp;$U36&amp;$W36&amp;$X36&amp;$Y36&amp;$Z36,2)&gt;0,IF(V36=".",".",1-V36),IF(V36=".",".",V36)),"")</f>
         <v/>
       </c>
       <c r="W37" s="4" t="str">
@@ -3643,59 +3511,59 @@
       </c>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="G38" s="15"/>
-      <c r="H38" s="8" t="s">
+      <c r="G38" s="13"/>
+      <c r="H38" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="15">
+      <c r="I38" s="18"/>
+      <c r="J38" s="13">
         <f>IF(H33+H34+H35&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="17">
+      <c r="M38" s="18"/>
+      <c r="N38" s="15">
         <f>1-MOD(SUM(R36:U36)+SUM(W36:Z36),2)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="O38" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="15">
+      <c r="P38" s="18"/>
+      <c r="Q38" s="13">
         <f>V33</f>
         <v>0</v>
       </c>
-      <c r="R38" s="17"/>
-      <c r="S38" s="8" t="s">
+      <c r="R38" s="15"/>
+      <c r="S38" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="T38" s="8"/>
-      <c r="U38" s="15">
+      <c r="T38" s="18"/>
+      <c r="U38" s="13">
         <f>IF(AB36=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V38" s="15"/>
-      <c r="W38" s="9" t="s">
+      <c r="V38" s="13"/>
+      <c r="W38" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="17">
+      <c r="X38" s="19"/>
+      <c r="Y38" s="15">
         <f>H36</f>
         <v>0</v>
       </c>
       <c r="AA38" t="s">
         <v>48</v>
       </c>
-      <c r="AB38" s="16">
+      <c r="AB38" s="14">
         <f>MOD(J38+H33,2)</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
       <c r="AF38" t="str">
         <f>VLOOKUP(IF(AB38=0,AB38&amp;J38,AB38&amp;"-"&amp;H34),AF$3:AG$6,2,0)</f>
         <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
@@ -3784,7 +3652,7 @@
       <c r="C42" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G42" s="4" t="str">
@@ -3867,7 +3735,7 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="AC42" s="8" t="s">
+      <c r="AC42" s="18" t="s">
         <v>27</v>
       </c>
       <c r="AD42" t="str">
@@ -3880,7 +3748,7 @@
       </c>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="F43" s="8"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="4" t="str">
         <f>C42</f>
         <v>B8</v>
@@ -3961,12 +3829,12 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="AC43" s="8"/>
+      <c r="AC43" s="18"/>
       <c r="AD43" t="str">
         <f>"X"&amp;MID(C42,2,2)</f>
         <v>X8</v>
       </c>
-      <c r="AE43" s="11">
+      <c r="AE43" s="9">
         <f>VLOOKUP(AD43,$A$4:$C$15,3,0)</f>
         <v>-15553</v>
       </c>
@@ -4049,21 +3917,21 @@
         <f>IF(Z43=".",Z43,MOD(Z43+Z42+Z41, 2))</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="14" t="s">
+      <c r="AA44" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AB44" s="4">
         <f>IF(H44=1,_xlfn.DECIMAL(H44&amp;I44&amp;J44&amp;K44&amp;M44&amp;N44&amp;O44&amp;P44&amp;R44&amp;S44&amp;T44&amp;U44&amp;W44&amp;X44&amp;Y44&amp;Z44,2)-65536,_xlfn.DECIMAL(H44&amp;I44&amp;J44&amp;K44&amp;M44&amp;N44&amp;O44&amp;P44&amp;R44&amp;S44&amp;T44&amp;U44&amp;W44&amp;X44&amp;Y44&amp;Z44,2))</f>
         <v>-21364</v>
       </c>
-      <c r="AC44" s="13" t="s">
+      <c r="AC44" s="11" t="s">
         <v>41</v>
       </c>
       <c r="AE44">
         <f>AE42+AE43</f>
         <v>-21364</v>
       </c>
-      <c r="AF44" s="13" t="s">
+      <c r="AF44" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4089,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" ref="L45:V45" si="70">IF($H44=1,IF(_xlfn.DECIMAL($J44&amp;$K44&amp;$M44&amp;$N44&amp;$O44&amp;$P44&amp;$R44&amp;$S44&amp;$T44&amp;$U44&amp;$W44&amp;$X44&amp;$Y44&amp;$Z44,2)&gt;0,IF(L44=".",".",1-L44),IF(L44=".",".",L44)),"")</f>
+        <f t="shared" ref="L45" si="70">IF($H44=1,IF(_xlfn.DECIMAL($J44&amp;$K44&amp;$M44&amp;$N44&amp;$O44&amp;$P44&amp;$R44&amp;$S44&amp;$T44&amp;$U44&amp;$W44&amp;$X44&amp;$Y44&amp;$Z44,2)&gt;0,IF(L44=".",".",1-L44),IF(L44=".",".",L44)),"")</f>
         <v>.</v>
       </c>
       <c r="M45" s="4">
@@ -4109,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="4" t="str">
-        <f t="shared" ref="Q45:AA45" si="71">IF($H44=1,IF(_xlfn.DECIMAL($J44&amp;$K44&amp;$M44&amp;$N44&amp;$O44&amp;$P44&amp;$R44&amp;$S44&amp;$T44&amp;$U44&amp;$W44&amp;$X44&amp;$Y44&amp;$Z44,2)&gt;0,IF(Q44=".",".",1-Q44),IF(Q44=".",".",Q44)),"")</f>
+        <f t="shared" ref="Q45" si="71">IF($H44=1,IF(_xlfn.DECIMAL($J44&amp;$K44&amp;$M44&amp;$N44&amp;$O44&amp;$P44&amp;$R44&amp;$S44&amp;$T44&amp;$U44&amp;$W44&amp;$X44&amp;$Y44&amp;$Z44,2)&gt;0,IF(Q44=".",".",1-Q44),IF(Q44=".",".",Q44)),"")</f>
         <v>.</v>
       </c>
       <c r="R45" s="4">
@@ -4129,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="V45" s="4" t="str">
-        <f t="shared" ref="V45:AE45" si="72">IF($H44=1,IF(_xlfn.DECIMAL($J44&amp;$K44&amp;$M44&amp;$N44&amp;$O44&amp;$P44&amp;$R44&amp;$S44&amp;$T44&amp;$U44&amp;$W44&amp;$X44&amp;$Y44&amp;$Z44,2)&gt;0,IF(V44=".",".",1-V44),IF(V44=".",".",V44)),"")</f>
+        <f t="shared" ref="V45" si="72">IF($H44=1,IF(_xlfn.DECIMAL($J44&amp;$K44&amp;$M44&amp;$N44&amp;$O44&amp;$P44&amp;$R44&amp;$S44&amp;$T44&amp;$U44&amp;$W44&amp;$X44&amp;$Y44&amp;$Z44,2)&gt;0,IF(V44=".",".",1-V44),IF(V44=".",".",V44)),"")</f>
         <v>.</v>
       </c>
       <c r="W45" s="4">
@@ -4150,59 +4018,59 @@
       </c>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="G46" s="15"/>
-      <c r="H46" s="8" t="s">
+      <c r="G46" s="13"/>
+      <c r="H46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="15">
+      <c r="I46" s="18"/>
+      <c r="J46" s="13">
         <f>IF(H41+H42+H43&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="17">
+      <c r="M46" s="18"/>
+      <c r="N46" s="15">
         <f>1-MOD(SUM(R44:U44)+SUM(W44:Z44),2)</f>
         <v>0</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="O46" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="15">
+      <c r="P46" s="18"/>
+      <c r="Q46" s="13">
         <f>V41</f>
         <v>1</v>
       </c>
-      <c r="R46" s="17"/>
-      <c r="S46" s="8" t="s">
+      <c r="R46" s="15"/>
+      <c r="S46" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="T46" s="8"/>
-      <c r="U46" s="15">
+      <c r="T46" s="18"/>
+      <c r="U46" s="13">
         <f>IF(AB44=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V46" s="15"/>
-      <c r="W46" s="9" t="s">
+      <c r="V46" s="13"/>
+      <c r="W46" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="17">
+      <c r="X46" s="19"/>
+      <c r="Y46" s="15">
         <f>H44</f>
         <v>1</v>
       </c>
       <c r="AA46" t="s">
         <v>48</v>
       </c>
-      <c r="AB46" s="16">
+      <c r="AB46" s="14">
         <f>MOD(J46+H41,2)</f>
         <v>0</v>
       </c>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="16"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
       <c r="AF46" t="str">
         <f>VLOOKUP(IF(AB46=0,AB46&amp;J46,AB46&amp;"-"&amp;H42),AF$3:AG$6,2,0)</f>
         <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
@@ -4291,7 +4159,7 @@
       <c r="C49" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="4" t="str">
@@ -4374,7 +4242,7 @@
         <f t="shared" si="90"/>
         <v>1</v>
       </c>
-      <c r="AC49" s="8" t="s">
+      <c r="AC49" s="18" t="s">
         <v>27</v>
       </c>
       <c r="AD49" t="str">
@@ -4387,7 +4255,7 @@
       </c>
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="F50" s="8"/>
+      <c r="F50" s="18"/>
       <c r="G50" s="4" t="str">
         <f>C49</f>
         <v>B9</v>
@@ -4468,12 +4336,12 @@
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="AC50" s="8"/>
+      <c r="AC50" s="18"/>
       <c r="AD50" t="str">
         <f>"X"&amp;MID(C49,2,2)</f>
         <v>X9</v>
       </c>
-      <c r="AE50" s="11">
+      <c r="AE50" s="9">
         <f>VLOOKUP(AD50,$A$4:$C$15,3,0)</f>
         <v>-21364</v>
       </c>
@@ -4556,21 +4424,21 @@
         <f>IF(Z50=".",Z50,MOD(Z50+Z49+Z48, 2))</f>
         <v>1</v>
       </c>
-      <c r="AA51" s="14" t="s">
+      <c r="AA51" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AB51" s="4">
         <f>IF(H51=1,_xlfn.DECIMAL(H51&amp;I51&amp;J51&amp;K51&amp;M51&amp;N51&amp;O51&amp;P51&amp;R51&amp;S51&amp;T51&amp;U51&amp;W51&amp;X51&amp;Y51&amp;Z51,2)-65536,_xlfn.DECIMAL(H51&amp;I51&amp;J51&amp;K51&amp;M51&amp;N51&amp;O51&amp;P51&amp;R51&amp;S51&amp;T51&amp;U51&amp;W51&amp;X51&amp;Y51&amp;Z51,2))</f>
         <v>28619</v>
       </c>
-      <c r="AC51" s="13" t="s">
+      <c r="AC51" s="11" t="s">
         <v>41</v>
       </c>
       <c r="AE51">
         <f>AE49+AE50</f>
         <v>-36917</v>
       </c>
-      <c r="AF51" s="13" t="s">
+      <c r="AF51" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4596,7 +4464,7 @@
         <v/>
       </c>
       <c r="L52" s="4" t="str">
-        <f t="shared" ref="L52:V52" si="92">IF($H51=1,IF(_xlfn.DECIMAL($J51&amp;$K51&amp;$M51&amp;$N51&amp;$O51&amp;$P51&amp;$R51&amp;$S51&amp;$T51&amp;$U51&amp;$W51&amp;$X51&amp;$Y51&amp;$Z51,2)&gt;0,IF(L51=".",".",1-L51),IF(L51=".",".",L51)),"")</f>
+        <f t="shared" ref="L52" si="92">IF($H51=1,IF(_xlfn.DECIMAL($J51&amp;$K51&amp;$M51&amp;$N51&amp;$O51&amp;$P51&amp;$R51&amp;$S51&amp;$T51&amp;$U51&amp;$W51&amp;$X51&amp;$Y51&amp;$Z51,2)&gt;0,IF(L51=".",".",1-L51),IF(L51=".",".",L51)),"")</f>
         <v/>
       </c>
       <c r="M52" s="4" t="str">
@@ -4616,7 +4484,7 @@
         <v/>
       </c>
       <c r="Q52" s="4" t="str">
-        <f t="shared" ref="Q52:AA52" si="93">IF($H51=1,IF(_xlfn.DECIMAL($J51&amp;$K51&amp;$M51&amp;$N51&amp;$O51&amp;$P51&amp;$R51&amp;$S51&amp;$T51&amp;$U51&amp;$W51&amp;$X51&amp;$Y51&amp;$Z51,2)&gt;0,IF(Q51=".",".",1-Q51),IF(Q51=".",".",Q51)),"")</f>
+        <f t="shared" ref="Q52" si="93">IF($H51=1,IF(_xlfn.DECIMAL($J51&amp;$K51&amp;$M51&amp;$N51&amp;$O51&amp;$P51&amp;$R51&amp;$S51&amp;$T51&amp;$U51&amp;$W51&amp;$X51&amp;$Y51&amp;$Z51,2)&gt;0,IF(Q51=".",".",1-Q51),IF(Q51=".",".",Q51)),"")</f>
         <v/>
       </c>
       <c r="R52" s="4" t="str">
@@ -4636,7 +4504,7 @@
         <v/>
       </c>
       <c r="V52" s="4" t="str">
-        <f t="shared" ref="V52:AE52" si="94">IF($H51=1,IF(_xlfn.DECIMAL($J51&amp;$K51&amp;$M51&amp;$N51&amp;$O51&amp;$P51&amp;$R51&amp;$S51&amp;$T51&amp;$U51&amp;$W51&amp;$X51&amp;$Y51&amp;$Z51,2)&gt;0,IF(V51=".",".",1-V51),IF(V51=".",".",V51)),"")</f>
+        <f t="shared" ref="V52" si="94">IF($H51=1,IF(_xlfn.DECIMAL($J51&amp;$K51&amp;$M51&amp;$N51&amp;$O51&amp;$P51&amp;$R51&amp;$S51&amp;$T51&amp;$U51&amp;$W51&amp;$X51&amp;$Y51&amp;$Z51,2)&gt;0,IF(V51=".",".",1-V51),IF(V51=".",".",V51)),"")</f>
         <v/>
       </c>
       <c r="W52" s="4" t="str">
@@ -4657,59 +4525,59 @@
       </c>
     </row>
     <row r="53" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="G53" s="15"/>
-      <c r="H53" s="8" t="s">
+      <c r="G53" s="13"/>
+      <c r="H53" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="15">
+      <c r="I53" s="18"/>
+      <c r="J53" s="13">
         <f>IF(H48+H49+H50&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="L53" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="17">
+      <c r="M53" s="18"/>
+      <c r="N53" s="15">
         <f>1-MOD(SUM(R51:U51)+SUM(W51:Z51),2)</f>
         <v>0</v>
       </c>
-      <c r="O53" s="8" t="s">
+      <c r="O53" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="15">
+      <c r="P53" s="18"/>
+      <c r="Q53" s="13">
         <f>V48</f>
         <v>1</v>
       </c>
-      <c r="R53" s="17"/>
-      <c r="S53" s="8" t="s">
+      <c r="R53" s="15"/>
+      <c r="S53" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="T53" s="8"/>
-      <c r="U53" s="15">
+      <c r="T53" s="18"/>
+      <c r="U53" s="13">
         <f>IF(AB51=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V53" s="15"/>
-      <c r="W53" s="9" t="s">
+      <c r="V53" s="13"/>
+      <c r="W53" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="17">
+      <c r="X53" s="19"/>
+      <c r="Y53" s="15">
         <f>H51</f>
         <v>0</v>
       </c>
       <c r="AA53" t="s">
         <v>48</v>
       </c>
-      <c r="AB53" s="16">
+      <c r="AB53" s="14">
         <f>MOD(J53+H48,2)</f>
         <v>1</v>
       </c>
-      <c r="AC53" s="16"/>
-      <c r="AD53" s="16"/>
-      <c r="AE53" s="16"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
       <c r="AF53" t="str">
         <f>VLOOKUP(IF(AB53=0,AB53&amp;J53,AB53&amp;"-"&amp;H49),AF$3:AG$6,2,0)</f>
         <v>При сложении отрицательных чисел получен положительный результат ПЕРЕПОЛНЕНИЕ!</v>
@@ -4798,7 +4666,7 @@
       <c r="C57" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G57" s="4" t="str">
@@ -4881,7 +4749,7 @@
         <f t="shared" si="112"/>
         <v>1</v>
       </c>
-      <c r="AC57" s="8" t="s">
+      <c r="AC57" s="18" t="s">
         <v>27</v>
       </c>
       <c r="AD57" t="str">
@@ -4894,7 +4762,7 @@
       </c>
     </row>
     <row r="58" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="F58" s="8"/>
+      <c r="F58" s="18"/>
       <c r="G58" s="4" t="str">
         <f>C57</f>
         <v>B1</v>
@@ -4975,12 +4843,12 @@
         <f t="shared" si="112"/>
         <v>1</v>
       </c>
-      <c r="AC58" s="8"/>
+      <c r="AC58" s="18"/>
       <c r="AD58" t="str">
         <f>"X"&amp;MID(C57,2,2)</f>
         <v>X1</v>
       </c>
-      <c r="AE58" s="11">
+      <c r="AE58" s="9">
         <f>VLOOKUP(AD58,$A$4:$C$15,3,0)</f>
         <v>5811</v>
       </c>
@@ -5063,21 +4931,21 @@
         <f>IF(Z58=".",Z58,MOD(Z58+Z57+Z56, 2))</f>
         <v>0</v>
       </c>
-      <c r="AA59" s="14" t="s">
+      <c r="AA59" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AB59" s="4">
         <f>IF(H59=1,_xlfn.DECIMAL(H59&amp;I59&amp;J59&amp;K59&amp;M59&amp;N59&amp;O59&amp;P59&amp;R59&amp;S59&amp;T59&amp;U59&amp;W59&amp;X59&amp;Y59&amp;Z59,2)-65536,_xlfn.DECIMAL(H59&amp;I59&amp;J59&amp;K59&amp;M59&amp;N59&amp;O59&amp;P59&amp;R59&amp;S59&amp;T59&amp;U59&amp;W59&amp;X59&amp;Y59&amp;Z59,2))</f>
         <v>-9742</v>
       </c>
-      <c r="AC59" s="13" t="s">
+      <c r="AC59" s="11" t="s">
         <v>41</v>
       </c>
       <c r="AE59">
         <f>AE57+AE58</f>
         <v>-9742</v>
       </c>
-      <c r="AF59" s="13" t="s">
+      <c r="AF59" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5103,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="str">
-        <f t="shared" ref="L60:V60" si="114">IF($H59=1,IF(_xlfn.DECIMAL($J59&amp;$K59&amp;$M59&amp;$N59&amp;$O59&amp;$P59&amp;$R59&amp;$S59&amp;$T59&amp;$U59&amp;$W59&amp;$X59&amp;$Y59&amp;$Z59,2)&gt;0,IF(L59=".",".",1-L59),IF(L59=".",".",L59)),"")</f>
+        <f t="shared" ref="L60" si="114">IF($H59=1,IF(_xlfn.DECIMAL($J59&amp;$K59&amp;$M59&amp;$N59&amp;$O59&amp;$P59&amp;$R59&amp;$S59&amp;$T59&amp;$U59&amp;$W59&amp;$X59&amp;$Y59&amp;$Z59,2)&gt;0,IF(L59=".",".",1-L59),IF(L59=".",".",L59)),"")</f>
         <v>.</v>
       </c>
       <c r="M60" s="4">
@@ -5123,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="4" t="str">
-        <f t="shared" ref="Q60:AA60" si="115">IF($H59=1,IF(_xlfn.DECIMAL($J59&amp;$K59&amp;$M59&amp;$N59&amp;$O59&amp;$P59&amp;$R59&amp;$S59&amp;$T59&amp;$U59&amp;$W59&amp;$X59&amp;$Y59&amp;$Z59,2)&gt;0,IF(Q59=".",".",1-Q59),IF(Q59=".",".",Q59)),"")</f>
+        <f t="shared" ref="Q60" si="115">IF($H59=1,IF(_xlfn.DECIMAL($J59&amp;$K59&amp;$M59&amp;$N59&amp;$O59&amp;$P59&amp;$R59&amp;$S59&amp;$T59&amp;$U59&amp;$W59&amp;$X59&amp;$Y59&amp;$Z59,2)&gt;0,IF(Q59=".",".",1-Q59),IF(Q59=".",".",Q59)),"")</f>
         <v>.</v>
       </c>
       <c r="R60" s="4">
@@ -5143,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="4" t="str">
-        <f t="shared" ref="V60:AE60" si="116">IF($H59=1,IF(_xlfn.DECIMAL($J59&amp;$K59&amp;$M59&amp;$N59&amp;$O59&amp;$P59&amp;$R59&amp;$S59&amp;$T59&amp;$U59&amp;$W59&amp;$X59&amp;$Y59&amp;$Z59,2)&gt;0,IF(V59=".",".",1-V59),IF(V59=".",".",V59)),"")</f>
+        <f t="shared" ref="V60" si="116">IF($H59=1,IF(_xlfn.DECIMAL($J59&amp;$K59&amp;$M59&amp;$N59&amp;$O59&amp;$P59&amp;$R59&amp;$S59&amp;$T59&amp;$U59&amp;$W59&amp;$X59&amp;$Y59&amp;$Z59,2)&gt;0,IF(V59=".",".",1-V59),IF(V59=".",".",V59)),"")</f>
         <v>.</v>
       </c>
       <c r="W60" s="4">
@@ -5164,59 +5032,59 @@
       </c>
     </row>
     <row r="61" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="G61" s="15"/>
-      <c r="H61" s="8" t="s">
+      <c r="G61" s="13"/>
+      <c r="H61" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="15">
+      <c r="I61" s="18"/>
+      <c r="J61" s="13">
         <f>IF(H56+H57+H58&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M61" s="8"/>
-      <c r="N61" s="17">
+      <c r="M61" s="18"/>
+      <c r="N61" s="15">
         <f>1-MOD(SUM(R59:U59)+SUM(W59:Z59),2)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="8" t="s">
+      <c r="O61" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="15">
+      <c r="P61" s="18"/>
+      <c r="Q61" s="13">
         <f>V56</f>
         <v>1</v>
       </c>
-      <c r="R61" s="17"/>
-      <c r="S61" s="8" t="s">
+      <c r="R61" s="15"/>
+      <c r="S61" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="T61" s="8"/>
-      <c r="U61" s="15">
+      <c r="T61" s="18"/>
+      <c r="U61" s="13">
         <f>IF(AB59=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V61" s="15"/>
-      <c r="W61" s="9" t="s">
+      <c r="V61" s="13"/>
+      <c r="W61" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="17">
+      <c r="X61" s="19"/>
+      <c r="Y61" s="15">
         <f>H59</f>
         <v>1</v>
       </c>
       <c r="AA61" t="s">
         <v>48</v>
       </c>
-      <c r="AB61" s="16">
+      <c r="AB61" s="14">
         <f>MOD(J61+H56,2)</f>
         <v>0</v>
       </c>
-      <c r="AC61" s="16"/>
-      <c r="AD61" s="16"/>
-      <c r="AE61" s="16"/>
+      <c r="AC61" s="14"/>
+      <c r="AD61" s="14"/>
+      <c r="AE61" s="14"/>
       <c r="AF61" t="str">
         <f>VLOOKUP(IF(AB61=0,AB61&amp;J61,AB61&amp;"-"&amp;H57),AF$3:AG$6,2,0)</f>
         <v>Результат корректный</v>
@@ -5305,7 +5173,7 @@
       <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G65" s="4" t="str">
@@ -5388,7 +5256,7 @@
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
-      <c r="AC65" s="8" t="s">
+      <c r="AC65" s="18" t="s">
         <v>27</v>
       </c>
       <c r="AD65" t="str">
@@ -5401,7 +5269,7 @@
       </c>
     </row>
     <row r="66" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="F66" s="8"/>
+      <c r="F66" s="18"/>
       <c r="G66" s="4" t="str">
         <f>C65</f>
         <v>B3</v>
@@ -5482,12 +5350,12 @@
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
-      <c r="AC66" s="8"/>
+      <c r="AC66" s="18"/>
       <c r="AD66" t="str">
         <f>"X"&amp;MID(C65,2,2)</f>
         <v>X3</v>
       </c>
-      <c r="AE66" s="11">
+      <c r="AE66" s="9">
         <f>VLOOKUP(AD66,$A$4:$C$15,3,0)</f>
         <v>21364</v>
       </c>
@@ -5570,21 +5438,21 @@
         <f>IF(Z66=".",Z66,MOD(Z66+Z65+Z64, 2))</f>
         <v>0</v>
       </c>
-      <c r="AA67" s="14" t="s">
+      <c r="AA67" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AB67" s="4">
         <f>IF(H67=1,_xlfn.DECIMAL(H67&amp;I67&amp;J67&amp;K67&amp;M67&amp;N67&amp;O67&amp;P67&amp;R67&amp;S67&amp;T67&amp;U67&amp;W67&amp;X67&amp;Y67&amp;Z67,2)-65536,_xlfn.DECIMAL(H67&amp;I67&amp;J67&amp;K67&amp;M67&amp;N67&amp;O67&amp;P67&amp;R67&amp;S67&amp;T67&amp;U67&amp;W67&amp;X67&amp;Y67&amp;Z67,2))</f>
         <v>11622</v>
       </c>
-      <c r="AC67" s="13" t="s">
+      <c r="AC67" s="11" t="s">
         <v>41</v>
       </c>
       <c r="AE67">
         <f>AE65+AE66</f>
         <v>11622</v>
       </c>
-      <c r="AF67" s="13" t="s">
+      <c r="AF67" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5610,7 +5478,7 @@
         <v/>
       </c>
       <c r="L68" s="4" t="str">
-        <f t="shared" ref="L68:V68" si="136">IF($H67=1,IF(_xlfn.DECIMAL($J67&amp;$K67&amp;$M67&amp;$N67&amp;$O67&amp;$P67&amp;$R67&amp;$S67&amp;$T67&amp;$U67&amp;$W67&amp;$X67&amp;$Y67&amp;$Z67,2)&gt;0,IF(L67=".",".",1-L67),IF(L67=".",".",L67)),"")</f>
+        <f t="shared" ref="L68" si="136">IF($H67=1,IF(_xlfn.DECIMAL($J67&amp;$K67&amp;$M67&amp;$N67&amp;$O67&amp;$P67&amp;$R67&amp;$S67&amp;$T67&amp;$U67&amp;$W67&amp;$X67&amp;$Y67&amp;$Z67,2)&gt;0,IF(L67=".",".",1-L67),IF(L67=".",".",L67)),"")</f>
         <v/>
       </c>
       <c r="M68" s="4" t="str">
@@ -5630,7 +5498,7 @@
         <v/>
       </c>
       <c r="Q68" s="4" t="str">
-        <f t="shared" ref="Q68:AA68" si="137">IF($H67=1,IF(_xlfn.DECIMAL($J67&amp;$K67&amp;$M67&amp;$N67&amp;$O67&amp;$P67&amp;$R67&amp;$S67&amp;$T67&amp;$U67&amp;$W67&amp;$X67&amp;$Y67&amp;$Z67,2)&gt;0,IF(Q67=".",".",1-Q67),IF(Q67=".",".",Q67)),"")</f>
+        <f t="shared" ref="Q68" si="137">IF($H67=1,IF(_xlfn.DECIMAL($J67&amp;$K67&amp;$M67&amp;$N67&amp;$O67&amp;$P67&amp;$R67&amp;$S67&amp;$T67&amp;$U67&amp;$W67&amp;$X67&amp;$Y67&amp;$Z67,2)&gt;0,IF(Q67=".",".",1-Q67),IF(Q67=".",".",Q67)),"")</f>
         <v/>
       </c>
       <c r="R68" s="4" t="str">
@@ -5650,7 +5518,7 @@
         <v/>
       </c>
       <c r="V68" s="4" t="str">
-        <f t="shared" ref="V68:AE68" si="138">IF($H67=1,IF(_xlfn.DECIMAL($J67&amp;$K67&amp;$M67&amp;$N67&amp;$O67&amp;$P67&amp;$R67&amp;$S67&amp;$T67&amp;$U67&amp;$W67&amp;$X67&amp;$Y67&amp;$Z67,2)&gt;0,IF(V67=".",".",1-V67),IF(V67=".",".",V67)),"")</f>
+        <f t="shared" ref="V68" si="138">IF($H67=1,IF(_xlfn.DECIMAL($J67&amp;$K67&amp;$M67&amp;$N67&amp;$O67&amp;$P67&amp;$R67&amp;$S67&amp;$T67&amp;$U67&amp;$W67&amp;$X67&amp;$Y67&amp;$Z67,2)&gt;0,IF(V67=".",".",1-V67),IF(V67=".",".",V67)),"")</f>
         <v/>
       </c>
       <c r="W68" s="4" t="str">
@@ -5671,59 +5539,59 @@
       </c>
     </row>
     <row r="69" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="G69" s="15"/>
-      <c r="H69" s="8" t="s">
+      <c r="G69" s="13"/>
+      <c r="H69" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="15">
+      <c r="I69" s="18"/>
+      <c r="J69" s="13">
         <f>IF(H64+H65+H66&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L69" s="8" t="s">
+      <c r="L69" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M69" s="8"/>
-      <c r="N69" s="17">
+      <c r="M69" s="18"/>
+      <c r="N69" s="15">
         <f>1-MOD(SUM(R67:U67)+SUM(W67:Z67),2)</f>
         <v>1</v>
       </c>
-      <c r="O69" s="8" t="s">
+      <c r="O69" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="15">
+      <c r="P69" s="18"/>
+      <c r="Q69" s="13">
         <f>V64</f>
         <v>0</v>
       </c>
-      <c r="R69" s="17"/>
-      <c r="S69" s="8" t="s">
+      <c r="R69" s="15"/>
+      <c r="S69" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="T69" s="8"/>
-      <c r="U69" s="15">
+      <c r="T69" s="18"/>
+      <c r="U69" s="13">
         <f>IF(AB67=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V69" s="15"/>
-      <c r="W69" s="9" t="s">
+      <c r="V69" s="13"/>
+      <c r="W69" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="17">
+      <c r="X69" s="19"/>
+      <c r="Y69" s="15">
         <f>H67</f>
         <v>0</v>
       </c>
       <c r="AA69" t="s">
         <v>48</v>
       </c>
-      <c r="AB69" s="16">
+      <c r="AB69" s="14">
         <f>MOD(J69+H64,2)</f>
         <v>0</v>
       </c>
-      <c r="AC69" s="16"/>
-      <c r="AD69" s="16"/>
-      <c r="AE69" s="16"/>
+      <c r="AC69" s="14"/>
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="14"/>
       <c r="AF69" t="str">
         <f>VLOOKUP(IF(AB69=0,AB69&amp;J69,AB69&amp;"-"&amp;H65),AF$3:AG$6,2,0)</f>
         <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
@@ -5784,13 +5652,18 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H4:Z15">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",H4)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",H4)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LПетров Вячеслав Маркович&amp;CВариант 11&amp;R&amp;F</oddHeader>
+    <oddFooter>&amp;C10.11.2023 00:22:12</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>